--- a/Dataset/Data_Satellites.xlsx
+++ b/Dataset/Data_Satellites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10685384_polimi_it/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="8_{7D2FF369-21D1-4AC3-9A02-E090BDD6FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24A639FA-A185-4645-A649-AA8AAD033D1B}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="8_{7D2FF369-21D1-4AC3-9A02-E090BDD6FBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32B3AC18-8BE3-4925-AB7A-FC44A7FE5850}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="440">
   <si>
     <t>Satellite Name</t>
   </si>
@@ -1711,13 +1711,13 @@
   <dimension ref="A1:Q383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L148" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N165" sqref="N165:O165"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N185" sqref="N185:O191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -10684,10 +10684,15 @@
       <c r="M166" s="1">
         <v>39802</v>
       </c>
-      <c r="O166" s="1"/>
+      <c r="N166" t="s">
+        <v>25</v>
+      </c>
+      <c r="O166" s="1">
+        <v>45247</v>
+      </c>
       <c r="P166" s="2">
         <f t="shared" si="2"/>
-        <v>-108.91666666666667</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="Q166">
         <v>15</v>
@@ -10733,10 +10738,15 @@
       <c r="M167" s="1">
         <v>39802</v>
       </c>
-      <c r="O167" s="1"/>
+      <c r="N167" t="s">
+        <v>25</v>
+      </c>
+      <c r="O167" s="1">
+        <v>45247</v>
+      </c>
       <c r="P167" s="2">
         <f t="shared" si="2"/>
-        <v>-108.91666666666667</v>
+        <v>14.916666666666666</v>
       </c>
       <c r="Q167">
         <v>15</v>
@@ -10782,10 +10792,15 @@
       <c r="M168" s="1">
         <v>39855</v>
       </c>
-      <c r="O168" s="1"/>
+      <c r="N168" t="s">
+        <v>25</v>
+      </c>
+      <c r="O168" s="1">
+        <v>45253</v>
+      </c>
       <c r="P168" s="2">
         <f t="shared" si="2"/>
-        <v>-109.08333333333333</v>
+        <v>14.75</v>
       </c>
       <c r="Q168">
         <v>15</v>
@@ -10831,10 +10846,15 @@
       <c r="M169" s="1">
         <v>39855</v>
       </c>
-      <c r="O169" s="1"/>
+      <c r="N169" t="s">
+        <v>25</v>
+      </c>
+      <c r="O169" s="1">
+        <v>45247</v>
+      </c>
       <c r="P169" s="2">
         <f t="shared" si="2"/>
-        <v>-109.08333333333333</v>
+        <v>14.75</v>
       </c>
       <c r="Q169">
         <v>15</v>
@@ -10880,10 +10900,15 @@
       <c r="M170" s="1">
         <v>39907</v>
       </c>
-      <c r="O170" s="1"/>
+      <c r="N170" t="s">
+        <v>25</v>
+      </c>
+      <c r="O170" s="1">
+        <v>45247</v>
+      </c>
       <c r="P170" s="2">
         <f t="shared" si="2"/>
-        <v>-109.25</v>
+        <v>14.583333333333334</v>
       </c>
       <c r="Q170">
         <v>14</v>
@@ -10929,10 +10954,15 @@
       <c r="M171" s="1">
         <v>39991</v>
       </c>
-      <c r="O171" s="1"/>
+      <c r="N171" t="s">
+        <v>25</v>
+      </c>
+      <c r="O171" s="1">
+        <v>45247</v>
+      </c>
       <c r="P171" s="2">
         <f t="shared" si="2"/>
-        <v>-109.41666666666667</v>
+        <v>14.416666666666666</v>
       </c>
       <c r="Q171">
         <v>10</v>
@@ -10978,10 +11008,15 @@
       <c r="M172" s="1">
         <v>40042</v>
       </c>
-      <c r="O172" s="1"/>
+      <c r="N172" t="s">
+        <v>25</v>
+      </c>
+      <c r="O172" s="1">
+        <v>45247</v>
+      </c>
       <c r="P172" s="2">
         <f t="shared" si="2"/>
-        <v>-109.58333333333333</v>
+        <v>14.25</v>
       </c>
       <c r="Q172">
         <v>10</v>
@@ -11027,10 +11062,15 @@
       <c r="M173" s="1">
         <v>40104</v>
       </c>
-      <c r="O173" s="1"/>
+      <c r="N173" t="s">
+        <v>25</v>
+      </c>
+      <c r="O173" s="1">
+        <v>45247</v>
+      </c>
       <c r="P173" s="2">
         <f t="shared" si="2"/>
-        <v>-109.75</v>
+        <v>14.083333333333334</v>
       </c>
       <c r="Q173">
         <v>5</v>
@@ -11076,10 +11116,15 @@
       <c r="M174" s="1">
         <v>40115</v>
       </c>
-      <c r="O174" s="1"/>
+      <c r="N174" t="s">
+        <v>25</v>
+      </c>
+      <c r="O174" s="1">
+        <v>45247</v>
+      </c>
       <c r="P174" s="2">
         <f t="shared" si="2"/>
-        <v>-109.75</v>
+        <v>14.083333333333334</v>
       </c>
       <c r="Q174">
         <v>15</v>
@@ -11125,10 +11170,15 @@
       <c r="M175" s="1">
         <v>40119</v>
       </c>
-      <c r="O175" s="1"/>
+      <c r="N175" t="s">
+        <v>25</v>
+      </c>
+      <c r="O175" s="1">
+        <v>45247</v>
+      </c>
       <c r="P175" s="2">
         <f t="shared" si="2"/>
-        <v>-109.83333333333333</v>
+        <v>14</v>
       </c>
       <c r="Q175">
         <v>3</v>
@@ -11174,10 +11224,15 @@
       <c r="M176" s="1">
         <v>40140</v>
       </c>
-      <c r="O176" s="1"/>
+      <c r="N176" t="s">
+        <v>25</v>
+      </c>
+      <c r="O176" s="1">
+        <v>45247</v>
+      </c>
       <c r="P176" s="2">
         <f t="shared" si="2"/>
-        <v>-109.83333333333333</v>
+        <v>14</v>
       </c>
       <c r="Q176">
         <v>16</v>
@@ -11223,10 +11278,15 @@
       <c r="M177" s="1">
         <v>40153</v>
       </c>
-      <c r="O177" s="1"/>
+      <c r="N177" t="s">
+        <v>25</v>
+      </c>
+      <c r="O177" s="1">
+        <v>45247</v>
+      </c>
       <c r="P177" s="2">
         <f t="shared" si="2"/>
-        <v>-109.91666666666667</v>
+        <v>13.916666666666666</v>
       </c>
       <c r="Q177">
         <v>14</v>
@@ -11272,10 +11332,15 @@
       <c r="M178" s="1">
         <v>40220</v>
       </c>
-      <c r="O178" s="1"/>
+      <c r="N178" t="s">
+        <v>25</v>
+      </c>
+      <c r="O178" s="1">
+        <v>45247</v>
+      </c>
       <c r="P178" s="2">
         <f t="shared" si="2"/>
-        <v>-110.08333333333333</v>
+        <v>13.75</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -11321,10 +11386,15 @@
       <c r="M179" s="1">
         <v>40241</v>
       </c>
-      <c r="O179" s="1"/>
+      <c r="N179" t="s">
+        <v>22</v>
+      </c>
+      <c r="O179" s="1">
+        <v>43402</v>
+      </c>
       <c r="P179" s="2">
         <f t="shared" si="2"/>
-        <v>-110.16666666666667</v>
+        <v>8.5833333333333339</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -11370,10 +11440,15 @@
       <c r="M180" s="1">
         <v>40257</v>
       </c>
-      <c r="O180" s="1"/>
+      <c r="N180" t="s">
+        <v>25</v>
+      </c>
+      <c r="O180" s="1">
+        <v>45247</v>
+      </c>
       <c r="P180" s="2">
         <f t="shared" si="2"/>
-        <v>-110.16666666666667</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="Q180">
         <v>15</v>
@@ -11419,10 +11494,15 @@
       <c r="M181" s="1">
         <v>40292</v>
       </c>
-      <c r="O181" s="1"/>
+      <c r="N181" t="s">
+        <v>25</v>
+      </c>
+      <c r="O181" s="1">
+        <v>45247</v>
+      </c>
       <c r="P181" s="2">
         <f t="shared" si="2"/>
-        <v>-110.25</v>
+        <v>13.583333333333334</v>
       </c>
       <c r="Q181">
         <v>15</v>
@@ -11468,10 +11548,15 @@
       <c r="M182" s="1">
         <v>40390</v>
       </c>
-      <c r="O182" s="1"/>
+      <c r="N182" t="s">
+        <v>25</v>
+      </c>
+      <c r="O182" s="1">
+        <v>45247</v>
+      </c>
       <c r="P182" s="2">
         <f t="shared" si="2"/>
-        <v>-110.5</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="Q182">
         <v>8</v>
@@ -11517,10 +11602,15 @@
       <c r="M183" s="1">
         <v>40394</v>
       </c>
-      <c r="O183" s="1"/>
+      <c r="N183" t="s">
+        <v>25</v>
+      </c>
+      <c r="O183" s="1">
+        <v>45247</v>
+      </c>
       <c r="P183" s="2">
         <f t="shared" si="2"/>
-        <v>-110.58333333333333</v>
+        <v>13.25</v>
       </c>
       <c r="Q183">
         <v>15</v>
@@ -11566,10 +11656,15 @@
       <c r="M184" s="1">
         <v>40394</v>
       </c>
-      <c r="O184" s="1"/>
+      <c r="N184" t="s">
+        <v>25</v>
+      </c>
+      <c r="O184" s="1">
+        <v>45247</v>
+      </c>
       <c r="P184" s="2">
         <f t="shared" si="2"/>
-        <v>-110.58333333333333</v>
+        <v>13.25</v>
       </c>
       <c r="Q184">
         <v>15</v>
@@ -11615,10 +11710,15 @@
       <c r="M185" s="1">
         <v>40479</v>
       </c>
-      <c r="O185" s="1"/>
+      <c r="N185" t="s">
+        <v>25</v>
+      </c>
+      <c r="O185" s="1">
+        <v>45247</v>
+      </c>
       <c r="P185" s="2">
         <f t="shared" si="2"/>
-        <v>-110.75</v>
+        <v>13.083333333333334</v>
       </c>
       <c r="Q185">
         <v>15</v>
@@ -11664,10 +11764,15 @@
       <c r="M186" s="1">
         <v>40496</v>
       </c>
-      <c r="O186" s="1"/>
+      <c r="N186" t="s">
+        <v>25</v>
+      </c>
+      <c r="O186" s="1">
+        <v>45247</v>
+      </c>
       <c r="P186" s="2">
         <f t="shared" si="2"/>
-        <v>-110.83333333333333</v>
+        <v>13</v>
       </c>
       <c r="Q186">
         <v>15</v>
@@ -11713,10 +11818,15 @@
       <c r="M187" s="1">
         <v>40508</v>
       </c>
-      <c r="O187" s="1"/>
+      <c r="N187" t="s">
+        <v>25</v>
+      </c>
+      <c r="O187" s="1">
+        <v>45247</v>
+      </c>
       <c r="P187" s="2">
         <f t="shared" si="2"/>
-        <v>-110.83333333333333</v>
+        <v>13</v>
       </c>
       <c r="Q187">
         <v>16</v>
@@ -11762,10 +11872,15 @@
       <c r="M188" s="1">
         <v>40529</v>
       </c>
-      <c r="O188" s="1"/>
+      <c r="N188" t="s">
+        <v>25</v>
+      </c>
+      <c r="O188" s="1">
+        <v>45247</v>
+      </c>
       <c r="P188" s="2">
         <f t="shared" si="2"/>
-        <v>-110.91666666666667</v>
+        <v>12.916666666666666</v>
       </c>
       <c r="Q188">
         <v>8</v>
@@ -11811,10 +11926,15 @@
       <c r="M189" s="1">
         <v>40538</v>
       </c>
-      <c r="O189" s="1"/>
+      <c r="N189" t="s">
+        <v>25</v>
+      </c>
+      <c r="O189" s="1">
+        <v>45247</v>
+      </c>
       <c r="P189" s="2">
         <f t="shared" si="2"/>
-        <v>-110.91666666666667</v>
+        <v>12.916666666666666</v>
       </c>
       <c r="Q189">
         <v>15</v>
@@ -11860,10 +11980,15 @@
       <c r="M190" s="1">
         <v>40541</v>
       </c>
-      <c r="O190" s="1"/>
+      <c r="N190" t="s">
+        <v>25</v>
+      </c>
+      <c r="O190" s="1">
+        <v>45247</v>
+      </c>
       <c r="P190" s="2">
         <f t="shared" si="2"/>
-        <v>-110.91666666666667</v>
+        <v>12.916666666666666</v>
       </c>
       <c r="Q190">
         <v>15</v>
@@ -11909,10 +12034,15 @@
       <c r="M191" s="1">
         <v>40541</v>
       </c>
-      <c r="O191" s="1"/>
+      <c r="N191" t="s">
+        <v>25</v>
+      </c>
+      <c r="O191" s="1">
+        <v>45247</v>
+      </c>
       <c r="P191" s="2">
         <f t="shared" si="2"/>
-        <v>-110.91666666666667</v>
+        <v>12.916666666666666</v>
       </c>
       <c r="Q191">
         <v>15</v>
